--- a/biology/Médecine/1240_en_santé_et_médecine/1240_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1240_en_santé_et_médecine/1240_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1240_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1240_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1240 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1240_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1240_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le médecin et chirurgien Thierry de Lucques est au service du cardinal Sinibald Fieschi, qui deviendra pape en 1243 sous le nom d'Innocent IV[1].
-Première mention de l'hôpital déjà ancien de Beaujeu, dans un testament où « messire de Trémont le nomme en lui léguant un « lit garni[2]  » ».
-Destruction d'un hôpital de pèlerins fondé au XIIe siècle, au lieu-dit Saint-Clément, sur les flancs du mont Mars dans les Cévennes[3].
-1240 (?) : au royaume de Sicile, l'empereur Frédéric II réglemente les officines d'apothicaire, dans une version augmentée de ses constitutions de Melfi, parues en 1231 et que « les historiens considèrent […] comme un document capital pour la pharmacie[4] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le médecin et chirurgien Thierry de Lucques est au service du cardinal Sinibald Fieschi, qui deviendra pape en 1243 sous le nom d'Innocent IV.
+Première mention de l'hôpital déjà ancien de Beaujeu, dans un testament où « messire de Trémont le nomme en lui léguant un « lit garni  » ».
+Destruction d'un hôpital de pèlerins fondé au XIIe siècle, au lieu-dit Saint-Clément, sur les flancs du mont Mars dans les Cévennes.
+1240 (?) : au royaume de Sicile, l'empereur Frédéric II réglemente les officines d'apothicaire, dans une version augmentée de ses constitutions de Melfi, parues en 1231 et que « les historiens considèrent […] comme un document capital pour la pharmacie ».</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1240_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1240_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,14 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Henri de Guintonia, chancelier de l'université de médecine de Montpellier[5].
-Fl. Geoffroi Pictavensis, professeur de médecine à l'université de Montpellier[5].
-Fl. Bertrand Remensis, Gautier de Blena et Jean Brito, docteurs en médecine de l'université de Montpellier[5].
-1240-avant 1294 : fl. Cardinalis, professeur  à l'université de Montpellier, auteur de plusieurs ouvrages de médecine, tous inédits[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Henri de Guintonia, chancelier de l'université de médecine de Montpellier.
+Fl. Geoffroi Pictavensis, professeur de médecine à l'université de Montpellier.
+Fl. Bertrand Remensis, Gautier de Blena et Jean Brito, docteurs en médecine de l'université de Montpellier.
+1240-avant 1294 : fl. Cardinalis, professeur  à l'université de Montpellier, auteur de plusieurs ouvrages de médecine, tous inédits.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1240_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1240_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,11 +593,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Abraham Aboulafia (mort en 1291), médecin, kabbaliste et mystique juif, spécialiste de Maïmonide.
-Entre 1238 et 1240 : Arnaud de Villeneuve (mort en 1311), médecin, alchimiste, théologien et astrologue catalan[6].
-Vers 1240 : Grégoire Chioniadès (mort vers 1320), astronome, physicien et médecin byzantin, évêque de Tabriz, en Iran[7].</t>
+Entre 1238 et 1240 : Arnaud de Villeneuve (mort en 1311), médecin, alchimiste, théologien et astrologue catalan.
+Vers 1240 : Grégoire Chioniadès (mort vers 1320), astronome, physicien et médecin byzantin, évêque de Tabriz, en Iran.</t>
         </is>
       </c>
     </row>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1240_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1240_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,10 +627,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ibn Abi al-Bayan (né en 1161), médecin juif du Caire, auteur de l'Al-Dustur al-bimaristani (« Formulaire des hôpitaux »), important traité de pharmacie hospitalière qui comprend plus de six cents recettes applicables au traitement de deux cent trente maladies[8].
-Après 1240 : Théodore d'Antioche (né à une date inconnue), philosophe et savant jacobite, médecin de l'empereur Frédéric II[9].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ibn Abi al-Bayan (né en 1161), médecin juif du Caire, auteur de l'Al-Dustur al-bimaristani (« Formulaire des hôpitaux »), important traité de pharmacie hospitalière qui comprend plus de six cents recettes applicables au traitement de deux cent trente maladies.
+Après 1240 : Théodore d'Antioche (né à une date inconnue), philosophe et savant jacobite, médecin de l'empereur Frédéric II.</t>
         </is>
       </c>
     </row>
